--- a/Design Documents/4.策略矩阵.xlsx
+++ b/Design Documents/4.策略矩阵.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="假想敌算法" sheetId="2" r:id="rId2"/>
+    <sheet name="战略选择算法" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>政策类型</t>
   </si>
@@ -88,6 +88,89 @@
   <si>
     <t>平时：不主动宣战
 战时：主动求和（自己弱小时）</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>保持和平</t>
+  </si>
+  <si>
+    <t>存在相邻非己方地区？</t>
+  </si>
+  <si>
+    <t>返回地区列表</t>
+  </si>
+  <si>
+    <t>计算城市价值
+（商业产值+农业产值）</t>
+  </si>
+  <si>
+    <t>计算敌我双方力量对比
+（我方剩余力量-敌方剩余力量）</t>
+  </si>
+  <si>
+    <t>过滤掉力量对比为负值的地区</t>
+  </si>
+  <si>
+    <t>当前列表长度？</t>
+  </si>
+  <si>
+    <t>N，N&gt;1</t>
+  </si>
+  <si>
+    <t>计算吞并城市之后我方对外节点数</t>
+  </si>
+  <si>
+    <t>城市价值/对外节点数 为key排序</t>
+  </si>
+  <si>
+    <t>返回排列第1的地区和国家</t>
+  </si>
+  <si>
+    <t>返回地区和国家</t>
+  </si>
+  <si>
+    <t>计算（己方兵力- 敌方兵力之和）</t>
+  </si>
+  <si>
+    <t>正值？</t>
+  </si>
+  <si>
+    <t>战略防御</t>
+  </si>
+  <si>
+    <t>战略进攻</t>
+  </si>
+  <si>
+    <t>返回与敌国接壤的地区列表</t>
+  </si>
+  <si>
+    <t>列表长度？</t>
+  </si>
+  <si>
+    <t>死守该城</t>
+  </si>
+  <si>
+    <t>调度军队，分配新兵。</t>
+  </si>
+  <si>
+    <t>计算城市威胁度</t>
+  </si>
+  <si>
+    <t>计算城市价值</t>
+  </si>
+  <si>
+    <t>输入相邻敌对地区列表</t>
+  </si>
+  <si>
+    <t>全力进攻</t>
+  </si>
+  <si>
+    <t>进攻价值最大城市</t>
   </si>
 </sst>
 </file>
@@ -111,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -119,11 +202,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -134,6 +303,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -524,12 +766,1012 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="30.75" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" ht="30">
+      <c r="A8" s="4"/>
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -540,12 +1782,128 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="25"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="25"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="23"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="23"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="27">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="31"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="26"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
